--- a/biology/Médecine/Ancien_hôpital_de_Colmar/Ancien_hôpital_de_Colmar.xlsx
+++ b/biology/Médecine/Ancien_hôpital_de_Colmar/Ancien_hôpital_de_Colmar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_h%C3%B4pital_de_Colmar</t>
+          <t>Ancien_hôpital_de_Colmar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien hôpital de Colmar est un monument historique situé à Colmar, dans le département français du Haut-Rhin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_h%C3%B4pital_de_Colmar</t>
+          <t>Ancien_hôpital_de_Colmar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'édifice est situé place du 2-Février à Colmar.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_h%C3%B4pital_de_Colmar</t>
+          <t>Ancien_hôpital_de_Colmar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine, ce bâtiment était un couvent des franciscains[1]. À la suite de leur départ, il a été transformé en 1543[2] en maladrerie mais fut détruit dans un incendie en 1735[3].
-La monarchie du XVIIIe siècle décida, à l'aide des pierres des fortifications démantelée en 1673[4], de bâtir en lieu et place un nouvel hôpital. Son édification dura de 1736 et 1744[5],[6] , donc contemporaine de la construction de la Frauenkirche de Dresde récemment rebâtie, et est due à l'architecte lorrain Luppe Danclo.
-Jusqu'à la Révolution française, l'hôpital était tenu de mettre à disposition des bourgeois de la ville les animaux reproducteurs[7].
-L'ensemble perdit sa fonction d'hôpital en 1937, date à laquelle fut construit l'hôpital Pasteur, à l'ouest de la ville[8],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, ce bâtiment était un couvent des franciscains. À la suite de leur départ, il a été transformé en 1543 en maladrerie mais fut détruit dans un incendie en 1735.
+La monarchie du XVIIIe siècle décida, à l'aide des pierres des fortifications démantelée en 1673, de bâtir en lieu et place un nouvel hôpital. Son édification dura de 1736 et 1744, , donc contemporaine de la construction de la Frauenkirche de Dresde récemment rebâtie, et est due à l'architecte lorrain Luppe Danclo.
+Jusqu'à la Révolution française, l'hôpital était tenu de mettre à disposition des bourgeois de la ville les animaux reproducteurs.
+L'ensemble perdit sa fonction d'hôpital en 1937, date à laquelle fut construit l'hôpital Pasteur, à l'ouest de la ville,.
 Jusqu'à la fin de l'année 2005, il accueillait une partie de l'IUT de Colmar.
-De 2009 à 2011, l'édifice est réaménagé pour accueillir la nouvelle médiathèque municipale, le Pôle Média-Culture Edmond-Gerrer[9].
-Les façades principales et latérales font l'objet d'une inscription au titre des monuments historiques depuis 1929 (arrêté du 18 juin 1929 modifié par arrêté du 4 décembre 1946)[10].
+De 2009 à 2011, l'édifice est réaménagé pour accueillir la nouvelle médiathèque municipale, le Pôle Média-Culture Edmond-Gerrer.
+Les façades principales et latérales font l'objet d'une inscription au titre des monuments historiques depuis 1929 (arrêté du 18 juin 1929 modifié par arrêté du 4 décembre 1946).
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ancien_h%C3%B4pital_de_Colmar</t>
+          <t>Ancien_hôpital_de_Colmar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 25 axes d'ouverture se répartissent sur un rez-de-chaussée en pierre de taille à refend, un étage-carré et un étage attique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 25 axes d'ouverture se répartissent sur un rez-de-chaussée en pierre de taille à refend, un étage-carré et un étage attique.
 Les façades sont de style Louis XV.
 </t>
         </is>
